--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,79 +450,58 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[[ 6  7]
+ [11 12]]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,8 +449,10 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[10 11 12 13 14 15 16 17 18 19]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -497,11 +499,32 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[[ 6  7]
- [11 12]]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[ 6  6 48 90 54]</t>
+          <t>[ 6 12 21 60 64]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[15 40  6 36 60]</t>
+          <t>[40 18  6  4 90]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[40 18  6  4 90]</t>
+          <t>[56 16 20  4 21]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[56 16 20  4 21]</t>
+          <t>[  1  20  80  24 100]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[  1  20  80  24 100]</t>
+          <t>[16 30 10  7 50]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[16 30 10  7 50]</t>
+          <t>[25 36 60 35 35]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[25 36 60 35 35]</t>
+          <t>[60 18 70 25 28]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[60 18 70 25 28]</t>
+          <t>[54 24 16 36 10]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[54 24 16 36 10]</t>
+          <t>[100  56   1   9  40]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[100  56   1   9  40]</t>
+          <t>[12 27 12 16  2]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[12 27 12 16  2]</t>
+          <t>[40 40  8 27 30]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[40 40  8 27 30]</t>
+          <t>[ 5 48 20  2 20]</t>
         </is>
       </c>
     </row>

--- a/src/Ejercicios/Actividad_2.xlsx
+++ b/src/Ejercicios/Actividad_2.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[ 5 48 20  2 20]</t>
+          <t>[20 54 30 81 14]</t>
         </is>
       </c>
     </row>
